--- a/biology/Botanique/Erica_herbacea/Erica_herbacea.xlsx
+++ b/biology/Botanique/Erica_herbacea/Erica_herbacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Erica herbacea est un nom scientifique décrivant une bruyère. Néanmoins, plusieurs espèces ont reçu ce nom.
@@ -512,9 +524,11 @@
           <t>Erica herbacea L.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La première description est Erica herbacea L.. Cependant, ce binôme a été rejeté[1] au profit de Erica carnea L.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La première description est Erica herbacea L.. Cependant, ce binôme a été rejeté au profit de Erica carnea L.</t>
         </is>
       </c>
     </row>
@@ -542,9 +556,11 @@
           <t>Erica herbacea Georgi</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La seconde description est Erica herbacea Georgi. La première occurrence du binôme ayant été rejetée, celle-ci est acceptable selon la nomenclature botanique. Toutefois, ce nom n'est à l'heure actuelle plus valide, étant considéré comme synonyme de Calluna vulgaris (L.) Hull[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La seconde description est Erica herbacea Georgi. La première occurrence du binôme ayant été rejetée, celle-ci est acceptable selon la nomenclature botanique. Toutefois, ce nom n'est à l'heure actuelle plus valide, étant considéré comme synonyme de Calluna vulgaris (L.) Hull.</t>
         </is>
       </c>
     </row>
